--- a/Task 3/logo Image page3/logo_name.xlsx
+++ b/Task 3/logo Image page3/logo_name.xlsx
@@ -19,28 +19,28 @@
     <t>Logo Name</t>
   </si>
   <si>
-    <t>Amazon Logo</t>
-  </si>
-  <si>
-    <t>World Health Organization Logo</t>
-  </si>
-  <si>
-    <t>Hertz Logo</t>
-  </si>
-  <si>
-    <t>TCL Logo</t>
-  </si>
-  <si>
-    <t>Virgin Mobile Logo</t>
-  </si>
-  <si>
-    <t>Shipt Logo</t>
-  </si>
-  <si>
-    <t>Nginx Logo</t>
-  </si>
-  <si>
-    <t>Glovo Logo</t>
+    <t>Amazon</t>
+  </si>
+  <si>
+    <t>World</t>
+  </si>
+  <si>
+    <t>Hertz</t>
+  </si>
+  <si>
+    <t>TCL</t>
+  </si>
+  <si>
+    <t>Virgin</t>
+  </si>
+  <si>
+    <t>Shipt</t>
+  </si>
+  <si>
+    <t>Nginx</t>
+  </si>
+  <si>
+    <t>Glovo</t>
   </si>
 </sst>
 </file>
